--- a/graphdata/graphFormats.xlsx
+++ b/graphdata/graphFormats.xlsx
@@ -7,7 +7,8 @@
     <sheet state="visible" name="adjacency_u" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="edgelist_d" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="adjacency_d" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="bipartite" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="attributes_d" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="bipartite" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,12 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>source</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
   <si>
     <t>movie</t>
@@ -224,6 +237,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4844,119 +4861,177 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="4.89"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="18.67"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/graphdata/graphFormats.xlsx
+++ b/graphdata/graphFormats.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>source</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>node</t>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -202,8 +205,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2709,6 +2718,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
@@ -2717,6 +2729,9 @@
       <c r="B2" s="2">
         <v>2.0</v>
       </c>
+      <c r="C2" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -2725,6 +2740,9 @@
       <c r="B3" s="2">
         <v>3.0</v>
       </c>
+      <c r="C3" s="7">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
@@ -2733,6 +2751,9 @@
       <c r="B4" s="2">
         <v>2.0</v>
       </c>
+      <c r="C4" s="7">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
@@ -2741,6 +2762,9 @@
       <c r="B5" s="2">
         <v>4.0</v>
       </c>
+      <c r="C5" s="7">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -2748,6 +2772,9 @@
       </c>
       <c r="B6" s="2">
         <v>3.0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -3739,11 +3766,6 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3762,7 +3784,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="2.11"/>
+    <col customWidth="1" min="1" max="3" width="1.89"/>
+    <col customWidth="1" min="4" max="4" width="3.33"/>
+    <col customWidth="1" min="5" max="5" width="2.89"/>
     <col customWidth="1" min="6" max="26" width="10.56"/>
   </cols>
   <sheetData>
@@ -3784,16 +3808,16 @@
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>0.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>1.0</v>
       </c>
-      <c r="D2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3801,16 +3825,16 @@
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>0.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>0.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>0.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -3818,33 +3842,33 @@
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>0.0</v>
       </c>
-      <c r="C4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.0</v>
       </c>
-      <c r="E4" s="6">
-        <v>1.0</v>
+      <c r="E4" s="9">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>0.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>0.0</v>
       </c>
-      <c r="D5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -4865,43 +4889,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1.0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4923,115 +4947,115 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>32</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/graphdata/graphFormats.xlsx
+++ b/graphdata/graphFormats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>source</t>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>grey</t>
   </si>
   <si>
     <t>node</t>
@@ -36,7 +45,13 @@
     <t>male</t>
   </si>
   <si>
+    <t>blue</t>
+  </si>
+  <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
   <si>
     <t>movie</t>
@@ -2721,6 +2736,9 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
@@ -2732,6 +2750,9 @@
       <c r="C2" s="7">
         <v>1.0</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -2743,6 +2764,9 @@
       <c r="C3" s="7">
         <v>3.0</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
@@ -2754,6 +2778,9 @@
       <c r="C4" s="7">
         <v>5.0</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
@@ -2765,6 +2792,9 @@
       <c r="C5" s="7">
         <v>10.0</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -2775,6 +2805,9 @@
       </c>
       <c r="C6" s="7">
         <v>0.5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -4890,10 +4923,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4901,7 +4937,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4909,7 +4948,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -4917,7 +4959,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -4925,7 +4970,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4948,114 +4996,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/graphdata/graphFormats.xlsx
+++ b/graphdata/graphFormats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>source</t>
   </si>
@@ -60,10 +60,49 @@
     <t>cast</t>
   </si>
   <si>
-    <t>The Departed</t>
+    <t>Awakenings</t>
   </si>
   <si>
-    <t>Leonardo DiCaprio, Jack Nicholson</t>
+    <t>Robert De Niro, Robin Williams</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <t>Christian Bale, Morgan Freeman</t>
+  </si>
+  <si>
+    <t>Catch Me If You Can</t>
+  </si>
+  <si>
+    <t>Tom Hanks, Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>Dustin Hoffman, Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>Empire of the Sun</t>
+  </si>
+  <si>
+    <t>Dustin Hoffman, Christian Bale</t>
+  </si>
+  <si>
+    <t>Good Will Hunting</t>
+  </si>
+  <si>
+    <t>Matt Damon, Robin Williams</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Al Pacino, Robert De Niro</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>Al Pacino, Robin Williams</t>
   </si>
   <si>
     <t>Saving Private Ryan</t>
@@ -72,28 +111,10 @@
     <t>Tom Hanks, Matt Damon</t>
   </si>
   <si>
-    <t>Catch Me If You Can</t>
+    <t>The Bucket List</t>
   </si>
   <si>
-    <t>Tom Hanks, Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>The Revenant</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio, Tom Hardy</t>
-  </si>
-  <si>
-    <t>The Godfather Part II</t>
-  </si>
-  <si>
-    <t>Al Pacino, Robert De Niro</t>
-  </si>
-  <si>
-    <t>Good Will Hunting</t>
-  </si>
-  <si>
-    <t>Matt Damon, Robin Williams</t>
+    <t>Jack Nicholson, Morgan Freeman</t>
   </si>
   <si>
     <t>The Dark Knight Rises</t>
@@ -102,37 +123,22 @@
     <t>Christian Bale, Tom Hardy</t>
   </si>
   <si>
-    <t>Awakenings</t>
+    <t>The Departed</t>
   </si>
   <si>
-    <t>Robert De Niro, Robin Williams</t>
+    <t>Leonardo DiCaprio, Jack Nicholson</t>
   </si>
   <si>
-    <t>Insomnia</t>
+    <t>The Godfather Part II</t>
   </si>
   <si>
-    <t>Al Pacino, Robin Williams</t>
+    <t>The Irishman</t>
   </si>
   <si>
-    <t>Empire of the Sun</t>
+    <t>The Revenant</t>
   </si>
   <si>
-    <t>Dustin Hoffman, Christian Bale</t>
-  </si>
-  <si>
-    <t>Dustin Hoffman, Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>The Bucket List</t>
-  </si>
-  <si>
-    <t>Jack Nicholson, Morgan Freeman</t>
-  </si>
-  <si>
-    <t>Batman Begins</t>
-  </si>
-  <si>
-    <t>Christian Bale, Morgan Freeman</t>
+    <t>Leonardo DiCaprio, Tom Hardy</t>
   </si>
 </sst>
 </file>
@@ -230,10 +236,10 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -4987,11 +4993,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.67"/>
+    <col customWidth="1" min="2" max="2" width="29.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5006,87 +5016,87 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5094,16 +5104,32 @@
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
